--- a/Excel/Excel Fundamentals for Data Analysis/Week 5/155 - Advanced data matching with INDEX and MATCH.xlsx
+++ b/Excel/Excel Fundamentals for Data Analysis/Week 5/155 - Advanced data matching with INDEX and MATCH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\studio750\Documents\Data Wrangling MOOC\Course1\Week5\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azrai Mahadan\AI_ML_DL\Excel\Excel Fundamentals for Data Analysis\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EE059-400C-44F9-84E4-D7A322B39C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911707DE-6311-48A3-98AF-6FD739C88482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-4185" windowWidth="28996" windowHeight="16395" xr2:uid="{EC2FC403-3BD3-48C3-93CE-3A4A505B5772}"/>
+    <workbookView minimized="1" xWindow="8088" yWindow="4680" windowWidth="14724" windowHeight="9420" xr2:uid="{EC2FC403-3BD3-48C3-93CE-3A4A505B5772}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplier Invoice Statement" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <definedName name="Supplier_Code">'MC Invoice Report'!$B$5:$B$88</definedName>
     <definedName name="Supplier_Recon">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -64,9 +64,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="411">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -1304,6 +1302,9 @@
   </si>
   <si>
     <t>Recon</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -1311,11 +1312,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1532,7 +1533,7 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1543,23 +1544,23 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9"/>
@@ -1579,16 +1580,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1601,7 +1602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,7 +1617,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1624,7 +1625,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1632,7 +1633,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1642,15 +1643,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent1" xfId="10" builtinId="29"/>
@@ -1668,41 +1670,851 @@
   </cellStyles>
   <dxfs count="86">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1715,14 +2527,104 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1743,13 +2645,14 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1772,7 +2675,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1781,6 +2684,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1843,6 +2747,14 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1855,6 +2767,43 @@
         </top>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2155,9 +3104,7 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2174,908 +3121,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3101,57 +3146,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -3356,51 +3354,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C98715-8638-4E85-985D-29000BD877AC}" name="tbl_Supplier" displayName="tbl_Supplier" ref="A1:U86" headerRowBorderDxfId="42" tableBorderDxfId="43" totalsRowBorderDxfId="41">
-  <autoFilter ref="A1:U86" xr:uid="{BC9280C7-1BCF-417E-9715-5CFA4B9AAA00}"/>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{52BFBEBF-3D49-40C6-99E9-4D1C2F78CBF5}" name="Document No" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{99102FB0-8F67-4019-A56C-7EFBD753E209}" name="Payment No." totalsRowFunction="count" dataDxfId="37" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{44AC7DA0-D291-4B85-A414-4B79542A74F2}" name="Paid" dataDxfId="35" totalsRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{30EE0024-C1B5-447C-A3A3-696AAEA80CC1}" name="Invoiced" dataDxfId="33" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{14A178F1-0952-4DA8-84F9-870DCB1674A2}" name="Inv/cr" dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{AC11F8AA-D099-4FC8-BAC7-F42F20B23C78}" name="Paid Amount" dataDxfId="29" totalsRowDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{339B4D81-2202-4DC9-B465-2DD3F31A2CFD}" name="Customer PO" dataDxfId="27" totalsRowDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{56A94A81-B7A6-4A3A-B36B-FFCFD09C31D7}" name="ABN" dataDxfId="25" totalsRowDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{B8D412FA-1ED0-423C-B7B8-7CDDED11FED5}" name="Acct" dataDxfId="23" totalsRowDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{D71A9FD3-FC17-40B1-B7EE-B919B78EC5F2}" name="Check" dataDxfId="21" totalsRowDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{952BD9B9-AE9C-4F38-98EB-DD0A4DBC6031}" name="Cust Ref" dataDxfId="19" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{44C98715-8638-4E85-985D-29000BD877AC}" name="tbl_Supplier" displayName="tbl_Supplier" ref="A1:V86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
+  <autoFilter ref="A1:V86" xr:uid="{BC9280C7-1BCF-417E-9715-5CFA4B9AAA00}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{52BFBEBF-3D49-40C6-99E9-4D1C2F78CBF5}" name="Document No" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{99102FB0-8F67-4019-A56C-7EFBD753E209}" name="Payment No." totalsRowFunction="count" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{44AC7DA0-D291-4B85-A414-4B79542A74F2}" name="Paid" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{30EE0024-C1B5-447C-A3A3-696AAEA80CC1}" name="Invoiced" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{14A178F1-0952-4DA8-84F9-870DCB1674A2}" name="Inv/cr" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{AC11F8AA-D099-4FC8-BAC7-F42F20B23C78}" name="Paid Amount" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{339B4D81-2202-4DC9-B465-2DD3F31A2CFD}" name="Customer PO" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{56A94A81-B7A6-4A3A-B36B-FFCFD09C31D7}" name="ABN" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{B8D412FA-1ED0-423C-B7B8-7CDDED11FED5}" name="Acct" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="10" xr3:uid="{D71A9FD3-FC17-40B1-B7EE-B919B78EC5F2}" name="Check" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{952BD9B9-AE9C-4F38-98EB-DD0A4DBC6031}" name="Cust Ref" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>CONCATENATE(A2,"_",B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B18B6DDB-3CE2-4D93-A928-F69EFB1E53F6}" name="Bank Details" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{B18B6DDB-3CE2-4D93-A928-F69EFB1E53F6}" name="Bank Details" dataDxfId="60">
       <calculatedColumnFormula>H2&amp;"-"&amp;I2&amp;"-"&amp;J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{DA0E0F2D-AA6B-41B0-9152-814F0201A8C5}" name="Inv Month" dataDxfId="17" totalsRowDxfId="18">
+    <tableColumn id="13" xr3:uid="{DA0E0F2D-AA6B-41B0-9152-814F0201A8C5}" name="Inv Month" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>LEFT(D2,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{AC7135CB-0044-46B3-90AF-0E203A7D10CA}" name="Cust PO" dataDxfId="3" totalsRowDxfId="16">
+    <tableColumn id="14" xr3:uid="{AC7135CB-0044-46B3-90AF-0E203A7D10CA}" name="Cust PO" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>VALUE(RIGHT(G2,6))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{7F8DB658-5E17-49E2-A66D-25D1A403B8B1}" name="Location" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="15" xr3:uid="{7F8DB658-5E17-49E2-A66D-25D1A403B8B1}" name="Location" dataDxfId="55" totalsRowDxfId="54">
       <calculatedColumnFormula>MID(G2,4,FIND("-",G2,4)-4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{525BCB5D-00F1-45D8-A50B-4CB59DEAD8CC}" name="Type" dataDxfId="12" totalsRowDxfId="13">
+    <tableColumn id="16" xr3:uid="{525BCB5D-00F1-45D8-A50B-4CB59DEAD8CC}" name="Type" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>UPPER(TRIM(CLEAN(E2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{4C714671-174F-46CE-990C-18D802F66171}" name="$ Amount" dataDxfId="11">
+    <tableColumn id="17" xr3:uid="{4C714671-174F-46CE-990C-18D802F66171}" name="$ Amount" dataDxfId="51">
       <calculatedColumnFormula>VALUE(SUBSTITUTE(SUBSTITUTE(F2,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{B1D4CB94-9310-427D-9840-D4BC7E47FE8C}" name="Invoice Date" dataDxfId="9" totalsRowDxfId="10">
+    <tableColumn id="18" xr3:uid="{B1D4CB94-9310-427D-9840-D4BC7E47FE8C}" name="Invoice Date" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>DATE(2020,MONTH(1&amp;M2),RIGHT(D2,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{6B972CFC-44ED-4FD9-B1C6-59234320EB20}" name="Paid Date" dataDxfId="7" totalsRowDxfId="8">
+    <tableColumn id="19" xr3:uid="{6B972CFC-44ED-4FD9-B1C6-59234320EB20}" name="Paid Date" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C2,2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{179862E3-3B83-4981-98BB-B39D51453247}" name="Days to Pay" dataDxfId="5" totalsRowDxfId="6">
+    <tableColumn id="22" xr3:uid="{179862E3-3B83-4981-98BB-B39D51453247}" name="Days to Pay" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F344E4E3-3037-4DF3-94CE-2828ADD5C55B}" name="Recon" dataDxfId="4">
+    <tableColumn id="20" xr3:uid="{F344E4E3-3037-4DF3-94CE-2828ADD5C55B}" name="Recon" dataDxfId="44">
       <calculatedColumnFormula>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{68FD2FB2-3F2B-496E-B97E-15C803302376}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -3408,43 +3409,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{638C14BD-F6A6-4A23-A3BE-7993CCEE9F34}" name="tbl_MC" displayName="tbl_MC" ref="A4:Q88" headerRowDxfId="85" dataDxfId="83" headerRowBorderDxfId="84" tableBorderDxfId="82" totalsRowBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{638C14BD-F6A6-4A23-A3BE-7993CCEE9F34}" name="tbl_MC" displayName="tbl_MC" ref="A4:Q88" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A4:Q88" xr:uid="{13A28ACC-331D-4225-A8C8-A8CA8F13F074}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:O88">
     <sortCondition ref="C4:C88"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C4858A8D-1AFD-4564-A6F5-1E15BC578168}" name="Payment Ref" totalsRowLabel="Total" totalsRowDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{FDAF40F1-3571-40E7-97D0-295F5543A0D2}" name="Supplier Code" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{6BA376D9-9C9D-43F3-B604-2F449277C862}" name="Payment No." totalsRowFunction="count" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{AA0FC72D-CBC0-422D-9B02-931656A68879}" name="Invoice Date" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{5CFD2BEA-8570-4A44-B859-40754C5BD32B}" name="Due Date" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="1" xr3:uid="{C4858A8D-1AFD-4564-A6F5-1E15BC578168}" name="Payment Ref" totalsRowLabel="Total" totalsRowDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{FDAF40F1-3571-40E7-97D0-295F5543A0D2}" name="Supplier Code" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{6BA376D9-9C9D-43F3-B604-2F449277C862}" name="Payment No." totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{AA0FC72D-CBC0-422D-9B02-931656A68879}" name="Invoice Date" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{5CFD2BEA-8570-4A44-B859-40754C5BD32B}" name="Due Date" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>WORKDAY(EDATE(D5,1)-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F2410CEC-BF88-4FF7-8C79-F0CBEAA3BFF0}" name="Payment Date" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{A7DE618F-0DA4-4A14-A177-E2DFF261F133}" name="PO Number" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{84DA8E78-9128-41E3-8BD5-14DFB33A351A}" name="Bank Details" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="9" xr3:uid="{51E545FA-5C70-4AE7-80EF-C180215FEEEF}" name="Location" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{1CEBCCB8-D8DA-4915-B6E0-D4914173F61F}" name="Amount" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{97DE4D90-93E4-4F85-8AAC-99A777E863AB}" name="Invoice Month" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="6" xr3:uid="{F2410CEC-BF88-4FF7-8C79-F0CBEAA3BFF0}" name="Payment Date" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{A7DE618F-0DA4-4A14-A177-E2DFF261F133}" name="PO Number" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{84DA8E78-9128-41E3-8BD5-14DFB33A351A}" name="Bank Details" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{51E545FA-5C70-4AE7-80EF-C180215FEEEF}" name="Location" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{1CEBCCB8-D8DA-4915-B6E0-D4914173F61F}" name="Amount" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{97DE4D90-93E4-4F85-8AAC-99A777E863AB}" name="Invoice Month" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>TEXT(D5,"MMM")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{443F0B83-0AFA-4B3A-9A3D-5D56DF1DFDCA}" name="Invoice Day" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="12" xr3:uid="{443F0B83-0AFA-4B3A-9A3D-5D56DF1DFDCA}" name="Invoice Day" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>DAY(D5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{7B8E0170-2688-4461-8E4C-ED9FD8D9FB9F}" name="Over Due" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="17" xr3:uid="{7B8E0170-2688-4461-8E4C-ED9FD8D9FB9F}" name="Over Due" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(tbl_MC[[#This Row],[Payment Date]]&gt;tbl_MC[[#This Row],[Due Date]],"Yes","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7C978FE9-6F25-4604-AB86-0FE4634F7EA6}" name="Over Due By" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="13" xr3:uid="{7C978FE9-6F25-4604-AB86-0FE4634F7EA6}" name="Over Due By" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(tbl_MC[[#This Row],[Over Due]]="",0,NETWORKDAYS(tbl_MC[[#This Row],[Due Date]],tbl_MC[[#This Row],[Payment Date]],Holidays))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C50C5F2E-E3D5-4B6A-8C16-84681B1B9B92}" name="Late Charge" dataDxfId="53">
+    <tableColumn id="15" xr3:uid="{C50C5F2E-E3D5-4B6A-8C16-84681B1B9B92}" name="Late Charge" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(tbl_MC[[#This Row],[Over Due By]],$S$21:$T$25,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7CFFC6D5-EDB0-4A5C-9179-D6C4CB2EE412}" name="Action" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="14" xr3:uid="{7CFFC6D5-EDB0-4A5C-9179-D6C4CB2EE412}" name="Action" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{605F9832-E13D-4D83-BF5F-7D0AE32A00ED}" name="Recon" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="16" xr3:uid="{605F9832-E13D-4D83-BF5F-7D0AE32A00ED}" name="Recon" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3453,20 +3454,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5B41777-82E8-40F9-9613-77FA8052B028}" name="Table2" displayName="Table2" ref="A7:E10" totalsRowCount="1" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F5B41777-82E8-40F9-9613-77FA8052B028}" name="Table2" displayName="Table2" ref="A7:E10" totalsRowCount="1" headerRowDxfId="5">
   <autoFilter ref="A7:E9" xr:uid="{9B05ED8C-4529-4DE7-A77C-30DB552A260F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C275C973-9170-4014-96B8-C6828AB91CE6}" name="Locations" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{2CE07265-DFF7-4B15-90E7-2F89898164BD}" name="Number of Invoices" totalsRowFunction="sum">
       <calculatedColumnFormula>COUNTIFS(Location,A8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6E647BAE-04A6-4CB6-AE92-E79884AAD420}" name="Total Paid" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{6E647BAE-04A6-4CB6-AE92-E79884AAD420}" name="Total Paid" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>SUMIFS(Amount_Paid,Location,A8)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{4175C8ED-ECFE-4A96-A7C1-37CE05EFB0B8}" name="Days Overdue">
       <calculatedColumnFormula>SUMIFS(tbl_MC[Over Due By],Location,$A8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{77118054-E47B-4AF2-BFEF-B03E3FB70EE0}" name="Late Charge" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{77118054-E47B-4AF2-BFEF-B03E3FB70EE0}" name="Late Charge" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>SUMIFS(Late_Charge,Location,$A8)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3775,39 +3776,39 @@
   <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="22" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="20" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="20" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="20" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="55" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="3.28515625" style="20" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="24" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="13.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="20" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="20" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="20" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="20" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" style="55" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="22" width="9.109375" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" style="20" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" style="24" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="18" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="18" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>3</v>
       </c>
@@ -3871,16 +3872,18 @@
       <c r="U1" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="V1"/>
+      <c r="V1" s="61" t="s">
+        <v>410</v>
+      </c>
       <c r="X1" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="Y1" s="23">
+      <c r="Y1" s="23" t="e">
         <f>SUM(tbl_Supplier[$ Amount])</f>
-        <v>46110.429999999993</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="43">
         <v>24671</v>
       </c>
@@ -3935,24 +3938,28 @@
         <f t="shared" ref="P2" si="5">UPPER(TRIM(CLEAN(E2)))</f>
         <v>INV</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F2,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>398.5</v>
-      </c>
-      <c r="R2" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2" s="47" t="e">
         <f t="shared" ref="R2" si="6">DATE(2020,MONTH(1&amp;M2),RIGHT(D2,2))</f>
-        <v>43892</v>
-      </c>
-      <c r="S2" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C2,2))</f>
-        <v>43917</v>
-      </c>
-      <c r="T2" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T2" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U2" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V2" t="e">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
         <v>#N/A</v>
       </c>
       <c r="X2" s="19" t="s">
@@ -3963,7 +3970,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="43">
         <v>24673</v>
       </c>
@@ -4018,30 +4025,34 @@
         <f t="shared" ref="P3:P34" si="10">UPPER(TRIM(CLEAN(E3)))</f>
         <v>INV</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F3,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>742.5</v>
-      </c>
-      <c r="R3" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R3" s="47" t="e">
         <f t="shared" ref="R3:R34" si="11">DATE(2020,MONTH(1&amp;M3),RIGHT(D3,2))</f>
-        <v>43892</v>
-      </c>
-      <c r="S3" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S3" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C3,2))</f>
-        <v>43938</v>
-      </c>
-      <c r="T3" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T3" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>46</v>
-      </c>
-      <c r="U3" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U3" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V3" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24673_1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="43">
-        <v>24673</v>
+        <v>24674</v>
       </c>
       <c r="B4" s="43">
         <v>1</v>
@@ -4072,7 +4083,7 @@
       </c>
       <c r="K4" s="43" t="str">
         <f>CONCATENATE(A4,"_",B4)</f>
-        <v>24673_1</v>
+        <v>24674_1</v>
       </c>
       <c r="L4" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4094,31 +4105,35 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F4,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1021.02</v>
-      </c>
-      <c r="R4" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R4" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43922</v>
-      </c>
-      <c r="S4" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S4" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C4,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T4" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T4" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-      <c r="U4" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>278.52</v>
-      </c>
-      <c r="X4" s="60" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V4" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24674_1</v>
+      </c>
+      <c r="X4" s="59" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="43">
         <v>24675</v>
       </c>
@@ -4173,30 +4188,34 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F5,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>409.53</v>
-      </c>
-      <c r="R5" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43906</v>
-      </c>
-      <c r="S5" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C5,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T5" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T5" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>20</v>
-      </c>
-      <c r="U5" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V5" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24675_1</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="43">
         <v>24676</v>
       </c>
@@ -4251,30 +4270,34 @@
         <f t="shared" si="10"/>
         <v>CR</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F6,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>-234.96</v>
-      </c>
-      <c r="R6" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43915</v>
-      </c>
-      <c r="S6" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C6,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T6" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>26</v>
-      </c>
-      <c r="U6" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24676_1</v>
       </c>
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="43">
         <v>24677</v>
       </c>
@@ -4329,30 +4352,34 @@
         <f t="shared" si="10"/>
         <v>CR</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F7,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>-450.12</v>
-      </c>
-      <c r="R7" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43907</v>
-      </c>
-      <c r="S7" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C7,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T7" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T7" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>24</v>
-      </c>
-      <c r="U7" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24677_1</v>
       </c>
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="43">
         <v>24679</v>
       </c>
@@ -4407,30 +4434,34 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F8,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>114.18</v>
-      </c>
-      <c r="R8" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R8" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43930</v>
-      </c>
-      <c r="S8" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C8,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T8" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T8" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>21</v>
-      </c>
-      <c r="U8" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V8" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24679_1</v>
       </c>
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="43">
         <v>24679</v>
       </c>
@@ -4485,29 +4516,33 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F9,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>930.93</v>
-      </c>
-      <c r="R9" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43913</v>
-      </c>
-      <c r="S9" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C9,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T9" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T9" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>38</v>
-      </c>
-      <c r="U9" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V9" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24679_2</v>
       </c>
       <c r="Y9" s="20"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="43">
         <v>24680</v>
       </c>
@@ -4562,29 +4597,33 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F10,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>466.29</v>
-      </c>
-      <c r="R10" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43917</v>
-      </c>
-      <c r="S10" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C10,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T10" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>18</v>
-      </c>
-      <c r="U10" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V10" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24680_1</v>
       </c>
       <c r="Y10" s="20"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="43">
         <v>24683</v>
       </c>
@@ -4639,28 +4678,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F11,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>222.42</v>
-      </c>
-      <c r="R11" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43912</v>
-      </c>
-      <c r="S11" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S11" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C11,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T11" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>36</v>
-      </c>
-      <c r="U11" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24683_1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="43">
         <v>24685</v>
       </c>
@@ -4715,28 +4758,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F12,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>679.8</v>
-      </c>
-      <c r="R12" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43899</v>
-      </c>
-      <c r="S12" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S12" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C12,2))</f>
-        <v>43932</v>
-      </c>
-      <c r="T12" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>33</v>
-      </c>
-      <c r="U12" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24685_1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="43">
         <v>24690</v>
       </c>
@@ -4791,28 +4838,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F13,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>171.93</v>
-      </c>
-      <c r="R13" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43925</v>
-      </c>
-      <c r="S13" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S13" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C13,2))</f>
-        <v>43944</v>
-      </c>
-      <c r="T13" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-      <c r="U13" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24690_1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="43">
         <v>24693</v>
       </c>
@@ -4867,28 +4918,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F14,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>623.70000000000005</v>
-      </c>
-      <c r="R14" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43885</v>
-      </c>
-      <c r="S14" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S14" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C14,2))</f>
-        <v>43927</v>
-      </c>
-      <c r="T14" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T14" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U14" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U14" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V14" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24693_1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="43">
         <v>24697</v>
       </c>
@@ -4943,28 +4998,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F15,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>221.1</v>
-      </c>
-      <c r="R15" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43919</v>
-      </c>
-      <c r="S15" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S15" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C15,2))</f>
-        <v>43945</v>
-      </c>
-      <c r="T15" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T15" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>26</v>
-      </c>
-      <c r="U15" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V15" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24697_1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="43">
         <v>24698</v>
       </c>
@@ -5019,28 +5078,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F16,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>393.36</v>
-      </c>
-      <c r="R16" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R16" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43930</v>
-      </c>
-      <c r="S16" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S16" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C16,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T16" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T16" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-      <c r="U16" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V16" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24698_1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="43">
         <v>24699</v>
       </c>
@@ -5095,28 +5158,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F17,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>642.17999999999995</v>
-      </c>
-      <c r="R17" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R17" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43899</v>
-      </c>
-      <c r="S17" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S17" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C17,2))</f>
-        <v>43942</v>
-      </c>
-      <c r="T17" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>43</v>
-      </c>
-      <c r="U17" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V17" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24699_1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="43">
         <v>24704</v>
       </c>
@@ -5171,28 +5238,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F18,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>499.95</v>
-      </c>
-      <c r="R18" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R18" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43909</v>
-      </c>
-      <c r="S18" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S18" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C18,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T18" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T18" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U18" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24704_1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="43">
         <v>24707</v>
       </c>
@@ -5247,28 +5318,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F19,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>299.64</v>
-      </c>
-      <c r="R19" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43890</v>
-      </c>
-      <c r="S19" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S19" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C19,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T19" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T19" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>38</v>
-      </c>
-      <c r="U19" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V19" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24707_1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="43">
         <v>24712</v>
       </c>
@@ -5323,28 +5398,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F20,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>312.83999999999997</v>
-      </c>
-      <c r="R20" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R20" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43912</v>
-      </c>
-      <c r="S20" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C20,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T20" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>39</v>
-      </c>
-      <c r="U20" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24712_1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="43">
         <v>24717</v>
       </c>
@@ -5399,28 +5478,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F21,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>993.63</v>
-      </c>
-      <c r="R21" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R21" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43904</v>
-      </c>
-      <c r="S21" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S21" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C21,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T21" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T21" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-      <c r="U21" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24717_1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="43">
         <v>24722</v>
       </c>
@@ -5475,28 +5558,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F22,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1053.69</v>
-      </c>
-      <c r="R22" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43917</v>
-      </c>
-      <c r="S22" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S22" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C22,2))</f>
-        <v>43922</v>
-      </c>
-      <c r="T22" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>5</v>
-      </c>
-      <c r="U22" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U22" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V22" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24722_1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="43">
         <v>24727</v>
       </c>
@@ -5551,28 +5638,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F23,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1047.75</v>
-      </c>
-      <c r="R23" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43929</v>
-      </c>
-      <c r="S23" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S23" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C23,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T23" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-      <c r="U23" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24727_1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="43">
         <v>24730</v>
       </c>
@@ -5627,28 +5718,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F24,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1096.92</v>
-      </c>
-      <c r="R24" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R24" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43888</v>
-      </c>
-      <c r="S24" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S24" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C24,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T24" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T24" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>41</v>
-      </c>
-      <c r="U24" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24730_1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="43">
         <v>24732</v>
       </c>
@@ -5703,28 +5798,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F25,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>257.07</v>
-      </c>
-      <c r="R25" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R25" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43886</v>
-      </c>
-      <c r="S25" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S25" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C25,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T25" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T25" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U25" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V25" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24732_1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="43">
         <v>24735</v>
       </c>
@@ -5779,28 +5878,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F26,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>215.49</v>
-      </c>
-      <c r="R26" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43945</v>
-      </c>
-      <c r="S26" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S26" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C26,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T26" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>4</v>
-      </c>
-      <c r="U26" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24735_2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="43">
         <v>24739</v>
       </c>
@@ -5855,28 +5958,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F27,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>455.07</v>
-      </c>
-      <c r="R27" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43926</v>
-      </c>
-      <c r="S27" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S27" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C27,2))</f>
-        <v>43945</v>
-      </c>
-      <c r="T27" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-      <c r="U27" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24739_1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="43">
         <v>24740</v>
       </c>
@@ -5931,28 +6038,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F28,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>711.81</v>
-      </c>
-      <c r="R28" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43923</v>
-      </c>
-      <c r="S28" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C28,2))</f>
-        <v>43930</v>
-      </c>
-      <c r="T28" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>7</v>
-      </c>
-      <c r="U28" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24740_1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="43">
         <v>24743</v>
       </c>
@@ -6007,28 +6118,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F29,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>78.540000000000006</v>
-      </c>
-      <c r="R29" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43911</v>
-      </c>
-      <c r="S29" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S29" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C29,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T29" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T29" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>14</v>
-      </c>
-      <c r="U29" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V29" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24743_1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="43">
         <v>24746</v>
       </c>
@@ -6083,28 +6198,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F30,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>302.61</v>
-      </c>
-      <c r="R30" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43892</v>
-      </c>
-      <c r="S30" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S30" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C30,2))</f>
-        <v>43927</v>
-      </c>
-      <c r="T30" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T30" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>35</v>
-      </c>
-      <c r="U30" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U30" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V30" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24746_1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="43">
         <v>24750</v>
       </c>
@@ -6159,28 +6278,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F31,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>426.03</v>
-      </c>
-      <c r="R31" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43886</v>
-      </c>
-      <c r="S31" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S31" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C31,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T31" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T31" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>45</v>
-      </c>
-      <c r="U31" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U31" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V31" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24750_1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="43">
         <v>24753</v>
       </c>
@@ -6235,28 +6358,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F32,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>489.72</v>
-      </c>
-      <c r="R32" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43899</v>
-      </c>
-      <c r="S32" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S32" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C32,2))</f>
-        <v>43932</v>
-      </c>
-      <c r="T32" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T32" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>33</v>
-      </c>
-      <c r="U32" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U32" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V32" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24753_1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="43">
         <v>24754</v>
       </c>
@@ -6311,28 +6438,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F33,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>352.44</v>
-      </c>
-      <c r="R33" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43915</v>
-      </c>
-      <c r="S33" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S33" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C33,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T33" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T33" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>34</v>
-      </c>
-      <c r="U33" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U33" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V33" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24754_1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="43">
         <v>24756</v>
       </c>
@@ -6387,28 +6518,32 @@
         <f t="shared" si="10"/>
         <v>INV</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F34,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>238.59</v>
-      </c>
-      <c r="R34" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R34" s="47" t="e">
         <f t="shared" si="11"/>
-        <v>43912</v>
-      </c>
-      <c r="S34" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S34" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C34,2))</f>
-        <v>43937</v>
-      </c>
-      <c r="T34" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T34" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>25</v>
-      </c>
-      <c r="U34" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U34" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V34" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24756_1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="43">
         <v>24757</v>
       </c>
@@ -6463,28 +6598,32 @@
         <f t="shared" ref="P35:P66" si="18">UPPER(TRIM(CLEAN(E35)))</f>
         <v>INV</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F35,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>549.12</v>
-      </c>
-      <c r="R35" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R35" s="47" t="e">
         <f t="shared" ref="R35:R66" si="19">DATE(2020,MONTH(1&amp;M35),RIGHT(D35,2))</f>
-        <v>43936</v>
-      </c>
-      <c r="S35" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S35" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C35,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T35" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T35" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>5</v>
-      </c>
-      <c r="U35" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U35" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V35" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24757_1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="43">
         <v>24758</v>
       </c>
@@ -6539,28 +6678,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F36,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>322.41000000000003</v>
-      </c>
-      <c r="R36" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R36" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43893</v>
-      </c>
-      <c r="S36" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S36" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C36,2))</f>
-        <v>43923</v>
-      </c>
-      <c r="T36" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T36" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>30</v>
-      </c>
-      <c r="U36" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U36" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V36" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24758_1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="43">
         <v>24759</v>
       </c>
@@ -6615,28 +6758,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F37,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>644.82000000000005</v>
-      </c>
-      <c r="R37" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R37" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43892</v>
-      </c>
-      <c r="S37" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S37" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C37,2))</f>
-        <v>43934</v>
-      </c>
-      <c r="T37" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T37" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U37" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U37" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V37" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24759_1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="43">
         <v>24760</v>
       </c>
@@ -6691,28 +6838,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F38,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>113.19</v>
-      </c>
-      <c r="R38" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R38" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43923</v>
-      </c>
-      <c r="S38" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S38" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C38,2))</f>
-        <v>43944</v>
-      </c>
-      <c r="T38" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T38" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>21</v>
-      </c>
-      <c r="U38" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U38" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V38" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24760_1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="43">
         <v>24761</v>
       </c>
@@ -6767,28 +6918,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F39,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>449.13</v>
-      </c>
-      <c r="R39" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R39" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43941</v>
-      </c>
-      <c r="S39" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S39" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C39,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T39" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T39" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>8</v>
-      </c>
-      <c r="U39" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U39" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V39" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24761_1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="43">
         <v>24764</v>
       </c>
@@ -6843,28 +6998,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F40,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>819.06</v>
-      </c>
-      <c r="R40" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R40" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43911</v>
-      </c>
-      <c r="S40" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S40" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C40,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T40" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T40" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-      <c r="U40" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U40" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V40" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24764_1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="43">
         <v>24767</v>
       </c>
@@ -6919,28 +7078,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F41,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1019.04</v>
-      </c>
-      <c r="R41" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R41" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43880</v>
-      </c>
-      <c r="S41" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S41" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C41,2))</f>
-        <v>43924</v>
-      </c>
-      <c r="T41" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T41" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>44</v>
-      </c>
-      <c r="U41" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U41" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V41" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24767_1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="43">
         <v>24771</v>
       </c>
@@ -6995,28 +7158,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F42,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>736.23</v>
-      </c>
-      <c r="R42" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R42" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43919</v>
-      </c>
-      <c r="S42" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S42" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C42,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T42" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T42" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>16</v>
-      </c>
-      <c r="U42" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U42" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V42" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24771_1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="43">
         <v>24775</v>
       </c>
@@ -7071,28 +7238,32 @@
         <f t="shared" si="18"/>
         <v>CR</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F43,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>-600.27</v>
-      </c>
-      <c r="R43" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43895</v>
-      </c>
-      <c r="S43" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C43,2))</f>
-        <v>43937</v>
-      </c>
-      <c r="T43" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T43" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U43" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U43" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V43" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24775_1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="43">
         <v>24779</v>
       </c>
@@ -7147,28 +7318,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F44,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>480.81</v>
-      </c>
-      <c r="R44" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43907</v>
-      </c>
-      <c r="S44" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S44" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C44,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T44" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T44" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>22</v>
-      </c>
-      <c r="U44" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U44" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V44" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24779_1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="43">
         <v>24784</v>
       </c>
@@ -7223,28 +7398,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F45,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>253.77</v>
-      </c>
-      <c r="R45" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43908</v>
-      </c>
-      <c r="S45" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C45,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T45" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T45" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>40</v>
-      </c>
-      <c r="U45" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U45" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V45" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24784_1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="43">
         <v>24788</v>
       </c>
@@ -7299,28 +7478,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F46,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>442.86</v>
-      </c>
-      <c r="R46" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R46" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43906</v>
-      </c>
-      <c r="S46" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S46" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C46,2))</f>
-        <v>43949</v>
-      </c>
-      <c r="T46" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T46" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>43</v>
-      </c>
-      <c r="U46" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U46" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V46" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24759_1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="43">
         <v>24792</v>
       </c>
@@ -7375,28 +7558,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F47,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>630.96</v>
-      </c>
-      <c r="R47" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R47" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43901</v>
-      </c>
-      <c r="S47" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S47" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C47,2))</f>
-        <v>43924</v>
-      </c>
-      <c r="T47" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T47" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>23</v>
-      </c>
-      <c r="U47" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U47" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V47" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24792_1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="43">
         <v>24793</v>
       </c>
@@ -7451,28 +7638,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F48,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>821.37</v>
-      </c>
-      <c r="R48" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R48" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43895</v>
-      </c>
-      <c r="S48" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S48" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C48,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T48" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T48" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>30</v>
-      </c>
-      <c r="U48" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U48" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V48" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24793_1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="43">
         <v>24795</v>
       </c>
@@ -7527,28 +7718,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F49,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>950.73</v>
-      </c>
-      <c r="R49" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R49" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43888</v>
-      </c>
-      <c r="S49" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S49" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C49,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T49" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T49" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>40</v>
-      </c>
-      <c r="U49" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U49" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V49" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24795_1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="43">
         <v>24798</v>
       </c>
@@ -7603,28 +7798,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F50,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>956.34</v>
-      </c>
-      <c r="R50" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R50" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43921</v>
-      </c>
-      <c r="S50" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S50" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C50,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T50" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T50" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>10</v>
-      </c>
-      <c r="U50" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U50" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V50" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24798_1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="43">
         <v>24801</v>
       </c>
@@ -7679,28 +7878,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F51,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1094.28</v>
-      </c>
-      <c r="R51" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R51" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43917</v>
-      </c>
-      <c r="S51" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S51" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C51,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T51" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T51" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>16</v>
-      </c>
-      <c r="U51" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U51" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V51" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24801_1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="43">
         <v>24803</v>
       </c>
@@ -7755,28 +7958,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F52,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>628.98</v>
-      </c>
-      <c r="R52" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R52" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43908</v>
-      </c>
-      <c r="S52" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S52" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C52,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T52" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T52" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>18</v>
-      </c>
-      <c r="U52" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U52" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V52" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24803_1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="43">
         <v>24808</v>
       </c>
@@ -7831,28 +8038,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F53,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1058.31</v>
-      </c>
-      <c r="R53" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R53" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43929</v>
-      </c>
-      <c r="S53" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S53" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C53,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T53" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T53" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>12</v>
-      </c>
-      <c r="U53" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U53" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V53" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24808_1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="43">
         <v>24813</v>
       </c>
@@ -7907,28 +8118,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F54,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>705.54</v>
-      </c>
-      <c r="R54" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R54" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43921</v>
-      </c>
-      <c r="S54" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S54" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C54,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T54" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T54" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>8</v>
-      </c>
-      <c r="U54" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U54" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V54" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24813_1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="43">
         <v>24815</v>
       </c>
@@ -7983,28 +8198,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F55,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>138.6</v>
-      </c>
-      <c r="R55" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R55" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43935</v>
-      </c>
-      <c r="S55" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S55" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C55,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T55" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T55" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>13</v>
-      </c>
-      <c r="U55" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U55" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V55" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24815_1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="43">
         <v>24819</v>
       </c>
@@ -8059,28 +8278,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q56" s="46">
+      <c r="Q56" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F56,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>417.12</v>
-      </c>
-      <c r="R56" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R56" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43914</v>
-      </c>
-      <c r="S56" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S56" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C56,2))</f>
-        <v>43928</v>
-      </c>
-      <c r="T56" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T56" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>14</v>
-      </c>
-      <c r="U56" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U56" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V56" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24819_1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="43">
         <v>24822</v>
       </c>
@@ -8135,28 +8358,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q57" s="46">
+      <c r="Q57" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F57,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>422.73</v>
-      </c>
-      <c r="R57" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R57" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43913</v>
-      </c>
-      <c r="S57" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S57" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C57,2))</f>
-        <v>43939</v>
-      </c>
-      <c r="T57" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T57" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>26</v>
-      </c>
-      <c r="U57" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U57" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V57" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24822_1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="43">
         <v>24824</v>
       </c>
@@ -8211,28 +8438,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q58" s="46">
+      <c r="Q58" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F58,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1061.94</v>
-      </c>
-      <c r="R58" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R58" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43908</v>
-      </c>
-      <c r="S58" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S58" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C58,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T58" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T58" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>27</v>
-      </c>
-      <c r="U58" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U58" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V58" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24824_1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="43">
         <v>24825</v>
       </c>
@@ -8287,28 +8518,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q59" s="46">
+      <c r="Q59" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F59,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>602.58000000000004</v>
-      </c>
-      <c r="R59" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R59" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43912</v>
-      </c>
-      <c r="S59" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S59" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C59,2))</f>
-        <v>43927</v>
-      </c>
-      <c r="T59" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T59" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>15</v>
-      </c>
-      <c r="U59" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U59" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V59" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24825_1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="43">
         <v>24830</v>
       </c>
@@ -8363,28 +8598,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q60" s="46">
+      <c r="Q60" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F60,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>132.66</v>
-      </c>
-      <c r="R60" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R60" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43927</v>
-      </c>
-      <c r="S60" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S60" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C60,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T60" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T60" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>24</v>
-      </c>
-      <c r="U60" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U60" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V60" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24830_1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="43">
         <v>24831</v>
       </c>
@@ -8439,28 +8678,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q61" s="46">
+      <c r="Q61" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F61,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>56.43</v>
-      </c>
-      <c r="R61" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R61" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43896</v>
-      </c>
-      <c r="S61" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S61" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C61,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T61" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T61" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>29</v>
-      </c>
-      <c r="U61" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U61" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V61" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24831_1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="43">
         <v>24833</v>
       </c>
@@ -8515,28 +8758,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q62" s="46">
+      <c r="Q62" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F62,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>511.83</v>
-      </c>
-      <c r="R62" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R62" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43881</v>
-      </c>
-      <c r="S62" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S62" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C62,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T62" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T62" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>45</v>
-      </c>
-      <c r="U62" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U62" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V62" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24833_1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="43">
         <v>24837</v>
       </c>
@@ -8591,28 +8838,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q63" s="46">
+      <c r="Q63" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F63,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>361.02</v>
-      </c>
-      <c r="R63" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R63" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43916</v>
-      </c>
-      <c r="S63" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S63" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C63,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T63" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T63" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>13</v>
-      </c>
-      <c r="U63" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U63" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V63" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24837_1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="43">
         <v>24838</v>
       </c>
@@ -8667,28 +8918,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q64" s="46">
+      <c r="Q64" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F64,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>668.25</v>
-      </c>
-      <c r="R64" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R64" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43932</v>
-      </c>
-      <c r="S64" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S64" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C64,2))</f>
-        <v>43948</v>
-      </c>
-      <c r="T64" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T64" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>16</v>
-      </c>
-      <c r="U64" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U64" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V64" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24838_1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="43">
         <v>24842</v>
       </c>
@@ -8743,28 +8998,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q65" s="46">
+      <c r="Q65" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F65,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>126.72</v>
-      </c>
-      <c r="R65" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R65" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43914</v>
-      </c>
-      <c r="S65" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S65" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C65,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T65" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T65" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>19</v>
-      </c>
-      <c r="U65" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U65" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V65" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24842_1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="43">
         <v>24847</v>
       </c>
@@ -8819,28 +9078,32 @@
         <f t="shared" si="18"/>
         <v>INV</v>
       </c>
-      <c r="Q66" s="46">
+      <c r="Q66" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F66,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1000.23</v>
-      </c>
-      <c r="R66" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R66" s="47" t="e">
         <f t="shared" si="19"/>
-        <v>43905</v>
-      </c>
-      <c r="S66" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S66" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C66,2))</f>
-        <v>43943</v>
-      </c>
-      <c r="T66" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T66" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>38</v>
-      </c>
-      <c r="U66" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U66" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V66" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24847_1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="43">
         <v>24851</v>
       </c>
@@ -8895,28 +9158,32 @@
         <f t="shared" ref="P67:P86" si="25">UPPER(TRIM(CLEAN(E67)))</f>
         <v>INV</v>
       </c>
-      <c r="Q67" s="46">
+      <c r="Q67" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F67,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>948.75</v>
-      </c>
-      <c r="R67" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R67" s="47" t="e">
         <f t="shared" ref="R67:R86" si="26">DATE(2020,MONTH(1&amp;M67),RIGHT(D67,2))</f>
-        <v>43918</v>
-      </c>
-      <c r="S67" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S67" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C67,2))</f>
-        <v>43939</v>
-      </c>
-      <c r="T67" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T67" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>21</v>
-      </c>
-      <c r="U67" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U67" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V67" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24851_1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="43">
         <v>24854</v>
       </c>
@@ -8971,28 +9238,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q68" s="46">
+      <c r="Q68" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F68,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>446.49</v>
-      </c>
-      <c r="R68" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R68" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43904</v>
-      </c>
-      <c r="S68" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S68" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C68,2))</f>
-        <v>43937</v>
-      </c>
-      <c r="T68" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T68" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>33</v>
-      </c>
-      <c r="U68" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U68" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V68" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24854_1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="43">
         <v>24857</v>
       </c>
@@ -9047,28 +9318,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q69" s="46">
+      <c r="Q69" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F69,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>242.22</v>
-      </c>
-      <c r="R69" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R69" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43933</v>
-      </c>
-      <c r="S69" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S69" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C69,2))</f>
-        <v>43940</v>
-      </c>
-      <c r="T69" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T69" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>7</v>
-      </c>
-      <c r="U69" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U69" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V69" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24857_1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="43">
         <v>24861</v>
       </c>
@@ -9123,28 +9398,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q70" s="46">
+      <c r="Q70" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F70,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>600.6</v>
-      </c>
-      <c r="R70" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R70" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43887</v>
-      </c>
-      <c r="S70" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S70" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C70,2))</f>
-        <v>43929</v>
-      </c>
-      <c r="T70" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T70" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U70" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U70" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V70" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24861_1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="43">
         <v>24863</v>
       </c>
@@ -9199,28 +9478,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q71" s="46">
+      <c r="Q71" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F71,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>546.80999999999995</v>
-      </c>
-      <c r="R71" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R71" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43905</v>
-      </c>
-      <c r="S71" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S71" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C71,2))</f>
-        <v>43942</v>
-      </c>
-      <c r="T71" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T71" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>37</v>
-      </c>
-      <c r="U71" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U71" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V71" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24863_1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="43">
         <v>24866</v>
       </c>
@@ -9275,28 +9558,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q72" s="46">
+      <c r="Q72" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F72,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>840.51</v>
-      </c>
-      <c r="R72" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R72" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43900</v>
-      </c>
-      <c r="S72" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S72" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C72,2))</f>
-        <v>43931</v>
-      </c>
-      <c r="T72" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T72" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>31</v>
-      </c>
-      <c r="U72" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U72" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V72" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24866_1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="43">
         <v>24870</v>
       </c>
@@ -9351,28 +9638,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q73" s="46">
+      <c r="Q73" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F73,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>603.57000000000005</v>
-      </c>
-      <c r="R73" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R73" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43923</v>
-      </c>
-      <c r="S73" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S73" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C73,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T73" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T73" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>28</v>
-      </c>
-      <c r="U73" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U73" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V73" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24870_1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="43">
         <v>24873</v>
       </c>
@@ -9427,28 +9718,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q74" s="46">
+      <c r="Q74" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F74,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>816.75</v>
-      </c>
-      <c r="R74" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R74" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43914</v>
-      </c>
-      <c r="S74" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S74" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C74,2))</f>
-        <v>43944</v>
-      </c>
-      <c r="T74" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T74" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>30</v>
-      </c>
-      <c r="U74" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U74" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V74" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24873_1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="43">
         <v>24875</v>
       </c>
@@ -9503,28 +9798,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q75" s="46">
+      <c r="Q75" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F75,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1065.57</v>
-      </c>
-      <c r="R75" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R75" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43912</v>
-      </c>
-      <c r="S75" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S75" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C75,2))</f>
-        <v>43951</v>
-      </c>
-      <c r="T75" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T75" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>39</v>
-      </c>
-      <c r="U75" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U75" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V75" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24875_1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="43">
         <v>24876</v>
       </c>
@@ -9579,28 +9878,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q76" s="46">
+      <c r="Q76" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F76,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>523.38</v>
-      </c>
-      <c r="R76" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R76" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43919</v>
-      </c>
-      <c r="S76" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S76" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C76,2))</f>
-        <v>43925</v>
-      </c>
-      <c r="T76" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T76" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>6</v>
-      </c>
-      <c r="U76" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U76" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V76" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24876_1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="43">
         <v>24877</v>
       </c>
@@ -9655,28 +9958,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q77" s="46">
+      <c r="Q77" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F77,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>650.42999999999995</v>
-      </c>
-      <c r="R77" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R77" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43890</v>
-      </c>
-      <c r="S77" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S77" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C77,2))</f>
-        <v>43932</v>
-      </c>
-      <c r="T77" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T77" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U77" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U77" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V77" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24877_1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="43">
         <v>24878</v>
       </c>
@@ -9731,28 +10038,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q78" s="46">
+      <c r="Q78" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F78,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>809.49</v>
-      </c>
-      <c r="R78" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R78" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43934</v>
-      </c>
-      <c r="S78" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S78" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C78,2))</f>
-        <v>43943</v>
-      </c>
-      <c r="T78" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T78" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>9</v>
-      </c>
-      <c r="U78" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U78" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V78" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24878_1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="43">
         <v>24880</v>
       </c>
@@ -9807,28 +10118,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q79" s="46">
+      <c r="Q79" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F79,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>424.38</v>
-      </c>
-      <c r="R79" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R79" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43901</v>
-      </c>
-      <c r="S79" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S79" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C79,2))</f>
-        <v>43943</v>
-      </c>
-      <c r="T79" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T79" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U79" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U79" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V79" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24880_1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="43">
         <v>24882</v>
       </c>
@@ -9883,28 +10198,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q80" s="46">
+      <c r="Q80" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F80,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>955.68</v>
-      </c>
-      <c r="R80" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R80" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43933</v>
-      </c>
-      <c r="S80" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S80" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C80,2))</f>
-        <v>43935</v>
-      </c>
-      <c r="T80" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T80" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>2</v>
-      </c>
-      <c r="U80" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U80" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V80" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24882_1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="43">
         <v>24885</v>
       </c>
@@ -9959,28 +10278,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q81" s="46">
+      <c r="Q81" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F81,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>764.28</v>
-      </c>
-      <c r="R81" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R81" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43942</v>
-      </c>
-      <c r="S81" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S81" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C81,2))</f>
-        <v>43950</v>
-      </c>
-      <c r="T81" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T81" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>8</v>
-      </c>
-      <c r="U81" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U81" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V81" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24885_1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="43">
         <v>24887</v>
       </c>
@@ -10035,28 +10358,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q82" s="46">
+      <c r="Q82" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F82,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>335.61</v>
-      </c>
-      <c r="R82" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R82" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43897</v>
-      </c>
-      <c r="S82" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S82" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C82,2))</f>
-        <v>43926</v>
-      </c>
-      <c r="T82" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T82" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>29</v>
-      </c>
-      <c r="U82" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U82" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V82" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24887_1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="43">
         <v>24891</v>
       </c>
@@ -10111,28 +10438,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q83" s="46">
+      <c r="Q83" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F83,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>763.29</v>
-      </c>
-      <c r="R83" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R83" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43898</v>
-      </c>
-      <c r="S83" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S83" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C83,2))</f>
-        <v>43940</v>
-      </c>
-      <c r="T83" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T83" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>42</v>
-      </c>
-      <c r="U83" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U83" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V83" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24891_1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="43">
         <v>24893</v>
       </c>
@@ -10187,28 +10518,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q84" s="46">
+      <c r="Q84" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F84,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>446.16</v>
-      </c>
-      <c r="R84" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R84" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43919</v>
-      </c>
-      <c r="S84" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S84" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C84,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T84" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T84" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>14</v>
-      </c>
-      <c r="U84" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U84" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V84" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24893_1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="43">
         <v>24898</v>
       </c>
@@ -10263,28 +10598,32 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q85" s="46">
+      <c r="Q85" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F85,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>1032.24</v>
-      </c>
-      <c r="R85" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R85" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43898</v>
-      </c>
-      <c r="S85" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S85" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C85,2))</f>
-        <v>43941</v>
-      </c>
-      <c r="T85" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T85" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>43</v>
-      </c>
-      <c r="U85" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U85" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V85" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24898_1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="43">
         <v>24902</v>
       </c>
@@ -10339,25 +10678,29 @@
         <f t="shared" si="25"/>
         <v>INV</v>
       </c>
-      <c r="Q86" s="46">
+      <c r="Q86" s="46" t="e">
         <f>VALUE(SUBSTITUTE(SUBSTITUTE(F86,"S","$"),CHAR(160),""))*IF(tbl_Supplier[[#This Row],[Type]]="CR",-1,1)</f>
-        <v>533.28</v>
-      </c>
-      <c r="R86" s="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R86" s="47" t="e">
         <f t="shared" si="26"/>
-        <v>43915</v>
-      </c>
-      <c r="S86" s="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S86" s="54" t="e">
         <f>DATE(2020,MONTH(tbl_Supplier[[#This Row],[Paid]]),RIGHT(C86,2))</f>
-        <v>43933</v>
-      </c>
-      <c r="T86" s="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T86" s="48" t="e">
         <f>tbl_Supplier[[#This Row],[Paid Date]]-tbl_Supplier[[#This Row],[Invoice Date]]</f>
-        <v>18</v>
-      </c>
-      <c r="U86" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U86" s="1" t="e">
         <f>tbl_Supplier[[#This Row],[$ Amount]]-VLOOKUP(tbl_Supplier[[#This Row],[Cust Ref]],tbl_MC[],10,0)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V86" t="str">
+        <f>INDEX(Payment_Ref,MATCH(tbl_Supplier[[#This Row],[Cust PO]],PO_Number,0))</f>
+        <v>24902_1</v>
       </c>
     </row>
   </sheetData>
@@ -10383,40 +10726,40 @@
       <selection activeCell="A4" sqref="A4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="5" customWidth="1"/>
+    <col min="12" max="13" width="11.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="5" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="3.44140625" customWidth="1"/>
+    <col min="19" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>133</v>
       </c>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="13">
         <f ca="1">TODAY()</f>
-        <v>43881</v>
+        <v>44575</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="13"/>
@@ -10431,12 +10774,12 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>132</v>
       </c>
@@ -10489,7 +10832,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>44</v>
       </c>
@@ -10546,14 +10889,14 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>742.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U5" s="26"/>
       <c r="V5" s="25"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>402</v>
       </c>
@@ -10611,10 +10954,10 @@
       </c>
       <c r="Q6" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>49</v>
       </c>
@@ -10670,12 +11013,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>409.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>50</v>
       </c>
@@ -10731,13 +11074,13 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>-234.96</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V8" s="26"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>51</v>
       </c>
@@ -10793,12 +11136,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>-450.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>52</v>
       </c>
@@ -10854,12 +11197,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q10" s="56">
+      <c r="Q10" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>114.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>53</v>
       </c>
@@ -10915,12 +11258,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q11" s="56">
+      <c r="Q11" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>930.93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>54</v>
       </c>
@@ -10976,12 +11319,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>466.29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>55</v>
       </c>
@@ -11037,12 +11380,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q13" s="56">
+      <c r="Q13" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>222.42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>56</v>
       </c>
@@ -11098,12 +11441,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="Q14" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>679.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>57</v>
       </c>
@@ -11159,12 +11502,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q15" s="56">
+      <c r="Q15" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>171.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>58</v>
       </c>
@@ -11220,12 +11563,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>623.70000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>59</v>
       </c>
@@ -11281,12 +11624,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>221.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>60</v>
       </c>
@@ -11342,12 +11685,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q18" s="56">
+      <c r="Q18" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>393.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>61</v>
       </c>
@@ -11403,12 +11746,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>642.17999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>62</v>
       </c>
@@ -11464,16 +11807,16 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>499.95</v>
-      </c>
-      <c r="S20" s="59" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="T20" s="59"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T20" s="60"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>63</v>
       </c>
@@ -11529,9 +11872,9 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>299.64</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S21" s="27">
         <v>0</v>
@@ -11540,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>64</v>
       </c>
@@ -11596,9 +11939,9 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>312.83999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S22" s="27">
         <v>1</v>
@@ -11607,7 +11950,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>65</v>
       </c>
@@ -11663,9 +12006,9 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q23" s="56">
+      <c r="Q23" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>993.63</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S23" s="27">
         <v>5</v>
@@ -11674,7 +12017,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>66</v>
       </c>
@@ -11730,9 +12073,9 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q24" s="56">
+      <c r="Q24" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1053.69</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S24" s="27">
         <v>10</v>
@@ -11741,7 +12084,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>67</v>
       </c>
@@ -11797,9 +12140,9 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q25" s="56">
+      <c r="Q25" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1047.75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S25" s="27">
         <v>15</v>
@@ -11808,7 +12151,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>68</v>
       </c>
@@ -11864,12 +12207,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q26" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1096.92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>69</v>
       </c>
@@ -11925,12 +12268,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q27" s="56">
+      <c r="Q27" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>257.07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>70</v>
       </c>
@@ -11986,12 +12329,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q28" s="56">
+      <c r="Q28" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>215.49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>71</v>
       </c>
@@ -12047,12 +12390,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q29" s="56">
+      <c r="Q29" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>455.07</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>72</v>
       </c>
@@ -12108,12 +12451,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q30" s="56">
+      <c r="Q30" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>711.81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>73</v>
       </c>
@@ -12169,12 +12512,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q31" s="56">
+      <c r="Q31" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>78.540000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>74</v>
       </c>
@@ -12230,12 +12573,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q32" s="56">
+      <c r="Q32" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>302.61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>75</v>
       </c>
@@ -12291,12 +12634,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q33" s="56">
+      <c r="Q33" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>426.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>76</v>
       </c>
@@ -12352,12 +12695,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q34" s="56">
+      <c r="Q34" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>489.72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>77</v>
       </c>
@@ -12413,12 +12756,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q35" s="56">
+      <c r="Q35" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>352.44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>78</v>
       </c>
@@ -12474,12 +12817,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q36" s="56">
+      <c r="Q36" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>238.59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>79</v>
       </c>
@@ -12535,12 +12878,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q37" s="56">
+      <c r="Q37" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>549.12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>80</v>
       </c>
@@ -12596,12 +12939,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q38" s="56">
+      <c r="Q38" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>322.41000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>81</v>
       </c>
@@ -12657,12 +13000,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q39" s="56">
+      <c r="Q39" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>644.82000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>82</v>
       </c>
@@ -12718,12 +13061,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q40" s="56">
+      <c r="Q40" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>113.19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>83</v>
       </c>
@@ -12779,12 +13122,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q41" s="56">
+      <c r="Q41" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>449.13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>84</v>
       </c>
@@ -12840,12 +13183,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q42" s="56">
+      <c r="Q42" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>819.06</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>85</v>
       </c>
@@ -12901,12 +13244,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q43" s="56">
+      <c r="Q43" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1019.04</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>86</v>
       </c>
@@ -12962,12 +13305,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q44" s="56">
+      <c r="Q44" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>736.23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>87</v>
       </c>
@@ -13023,12 +13366,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q45" s="56">
+      <c r="Q45" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>-600.27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>88</v>
       </c>
@@ -13084,12 +13427,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q46" s="56">
+      <c r="Q46" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>480.81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>89</v>
       </c>
@@ -13145,12 +13488,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q47" s="56">
+      <c r="Q47" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>253.77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>90</v>
       </c>
@@ -13206,12 +13549,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q48" s="56">
+      <c r="Q48" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>442.86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>91</v>
       </c>
@@ -13267,12 +13610,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q49" s="56">
+      <c r="Q49" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>630.96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>92</v>
       </c>
@@ -13328,12 +13671,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q50" s="56">
+      <c r="Q50" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>821.37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>93</v>
       </c>
@@ -13389,12 +13732,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q51" s="56">
+      <c r="Q51" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>950.73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
         <v>94</v>
       </c>
@@ -13450,12 +13793,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q52" s="56">
+      <c r="Q52" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>956.34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>95</v>
       </c>
@@ -13511,12 +13854,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q53" s="56">
+      <c r="Q53" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1094.28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>96</v>
       </c>
@@ -13572,12 +13915,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q54" s="56">
+      <c r="Q54" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>628.98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
         <v>97</v>
       </c>
@@ -13633,12 +13976,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q55" s="56">
+      <c r="Q55" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1058.31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>98</v>
       </c>
@@ -13694,12 +14037,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q56" s="56">
+      <c r="Q56" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>705.54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>99</v>
       </c>
@@ -13755,12 +14098,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q57" s="56">
+      <c r="Q57" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>138.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>100</v>
       </c>
@@ -13816,12 +14159,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q58" s="56">
+      <c r="Q58" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>417.12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>101</v>
       </c>
@@ -13877,12 +14220,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q59" s="56">
+      <c r="Q59" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>422.73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>102</v>
       </c>
@@ -13938,12 +14281,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q60" s="56">
+      <c r="Q60" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1061.94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
         <v>103</v>
       </c>
@@ -13999,12 +14342,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q61" s="56">
+      <c r="Q61" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>602.58000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>104</v>
       </c>
@@ -14060,12 +14403,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q62" s="56">
+      <c r="Q62" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>132.66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>105</v>
       </c>
@@ -14121,12 +14464,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q63" s="56">
+      <c r="Q63" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>56.43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>106</v>
       </c>
@@ -14182,12 +14525,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q64" s="56">
+      <c r="Q64" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>511.83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>107</v>
       </c>
@@ -14243,12 +14586,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q65" s="56">
+      <c r="Q65" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>361.02</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>108</v>
       </c>
@@ -14304,12 +14647,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q66" s="56">
+      <c r="Q66" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>668.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>109</v>
       </c>
@@ -14365,12 +14708,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q67" s="56">
+      <c r="Q67" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>126.72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>110</v>
       </c>
@@ -14426,12 +14769,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q68" s="56">
+      <c r="Q68" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1000.23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="32" t="s">
         <v>111</v>
       </c>
@@ -14487,12 +14830,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q69" s="56">
+      <c r="Q69" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>948.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>112</v>
       </c>
@@ -14548,12 +14891,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q70" s="56">
+      <c r="Q70" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>446.49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>113</v>
       </c>
@@ -14609,12 +14952,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q71" s="56">
+      <c r="Q71" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>242.22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>114</v>
       </c>
@@ -14670,12 +15013,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q72" s="56">
+      <c r="Q72" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>600.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>115</v>
       </c>
@@ -14731,12 +15074,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q73" s="56">
+      <c r="Q73" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>546.80999999999995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>116</v>
       </c>
@@ -14792,12 +15135,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q74" s="56">
+      <c r="Q74" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>840.51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>117</v>
       </c>
@@ -14853,12 +15196,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q75" s="56">
+      <c r="Q75" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>603.57000000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>118</v>
       </c>
@@ -14914,12 +15257,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q76" s="56">
+      <c r="Q76" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>816.75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>119</v>
       </c>
@@ -14975,12 +15318,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q77" s="56">
+      <c r="Q77" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1065.57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>120</v>
       </c>
@@ -15036,12 +15379,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q78" s="56">
+      <c r="Q78" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>523.38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>121</v>
       </c>
@@ -15097,12 +15440,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q79" s="56">
+      <c r="Q79" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>650.42999999999995</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>122</v>
       </c>
@@ -15158,12 +15501,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q80" s="56">
+      <c r="Q80" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>809.49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
         <v>123</v>
       </c>
@@ -15219,12 +15562,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q81" s="56">
+      <c r="Q81" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>424.38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
         <v>124</v>
       </c>
@@ -15280,12 +15623,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q82" s="56">
+      <c r="Q82" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>955.68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="32" t="s">
         <v>125</v>
       </c>
@@ -15341,12 +15684,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q83" s="56">
+      <c r="Q83" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>764.28</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>126</v>
       </c>
@@ -15402,12 +15745,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q84" s="56">
+      <c r="Q84" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>335.61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="32" t="s">
         <v>127</v>
       </c>
@@ -15463,12 +15806,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q85" s="56">
+      <c r="Q85" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>763.29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
         <v>128</v>
       </c>
@@ -15524,12 +15867,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q86" s="56">
+      <c r="Q86" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>446.16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="32" t="s">
         <v>129</v>
       </c>
@@ -15585,12 +15928,12 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v>Action</v>
       </c>
-      <c r="Q87" s="56">
+      <c r="Q87" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>1032.24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>130</v>
       </c>
@@ -15646,9 +15989,9 @@
         <f>IF(AND(tbl_MC[[#This Row],[Over Due By]]&gt;0,tbl_MC[[#This Row],[Amount]]&gt;=500),"Action","")</f>
         <v/>
       </c>
-      <c r="Q88" s="56">
+      <c r="Q88" s="56" t="e">
         <f>VLOOKUP(tbl_MC[[#This Row],[Payment Ref]],recon,7,0)</f>
-        <v>533.28</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -15660,7 +16003,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B5:N88">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="43" priority="16">
       <formula>$I5=$K$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15693,32 +16036,32 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="e">
         <f>SUM('Supplier Invoice Statement'!Q2:Q86)</f>
-        <v>46110.429999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>399</v>
       </c>
@@ -15727,16 +16070,16 @@
         <v>45711.929999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="e">
         <f>B3-B4</f>
-        <v>398.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>188</v>
       </c>
@@ -15753,7 +16096,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -15774,7 +16117,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -15795,7 +16138,7 @@
         <v>108.39999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>407</v>
       </c>
@@ -15825,22 +16168,22 @@
       <selection activeCell="A4" sqref="A4:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="4"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>153</v>
       </c>
@@ -15851,7 +16194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>43831</v>
       </c>
@@ -15863,7 +16206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>43857</v>
       </c>
@@ -15875,7 +16218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>43931</v>
       </c>
@@ -15887,7 +16230,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>43932</v>
       </c>
@@ -15899,7 +16242,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>43933</v>
       </c>
@@ -15911,7 +16254,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>43934</v>
       </c>
@@ -15923,7 +16266,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>43946</v>
       </c>
@@ -15935,7 +16278,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>43990</v>
       </c>
@@ -15947,7 +16290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>44109</v>
       </c>
@@ -15959,7 +16302,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>44190</v>
       </c>
@@ -15971,7 +16314,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>44191</v>
       </c>
@@ -15983,7 +16326,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>44193</v>
       </c>
@@ -15995,13 +16338,13 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>184</v>
       </c>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>185</v>
       </c>
@@ -16010,7 +16353,7 @@
       </c>
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -16018,7 +16361,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -16026,7 +16369,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -16034,7 +16377,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -16042,7 +16385,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5</v>
       </c>
@@ -16050,7 +16393,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -16058,7 +16401,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -16066,7 +16409,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -16074,7 +16417,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -16082,7 +16425,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -16090,7 +16433,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -16098,7 +16441,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -16106,7 +16449,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -16114,7 +16457,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>17</v>
       </c>
@@ -16122,7 +16465,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>187</v>
       </c>
